--- a/Куртки.xlsx
+++ b/Куртки.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F249"/>
+  <dimension ref="A1:F382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7297,10 +7297,8 @@
           <t>Nike</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>9260</t>
-        </is>
+      <c r="C248" t="n">
+        <v>9260</v>
       </c>
       <c r="D248" t="n">
         <v>0.1000971817298348</v>
@@ -7327,10 +7325,8 @@
           <t>adidas</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>9890</t>
-        </is>
+      <c r="C249" t="n">
+        <v>9890</v>
       </c>
       <c r="D249" t="n">
         <v>0.100090991810737</v>
@@ -7343,6 +7339,3854 @@
       <c r="F249" t="inlineStr">
         <is>
           <t>44/46; 48/50; 60/62</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>19450</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.3003345444080723</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfj3/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик THFC M NSW DWN JKT AUT CL</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>9740</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.2501924557351809</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ni464emgqvd0/clothes-nike-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Anta</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>8330</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.4006763076480322</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/an225emctrl2/clothes-anta-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>50/52; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик 1877 DOWN JACKET</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Helly Hansen</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>14990</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.2501250625312657</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/he012emfqzq7/clothes-hellyhansen-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>17990</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.2503854327263636</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfi8/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>44/46; 48/50; 54/56; 56/58</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>21240</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.1503660146405856</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfi9/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик CLIMAWARM HOODI</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>11240</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.2501667778519012</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ad002emfkrt8/clothes-adidas-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик PWRWarm packLITE HD 600 DOWN Jacket</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>11040</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.1501154734411085</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/pu053emfrid4/clothes-puma-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик Classics Down Jacket</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>11990</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.200133422281521</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/pu053emfrid8/clothes-puma-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>10720</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.2502972235820686</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfk0/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>46/48; 48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик 650 Protective Down Jacket</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>13990</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.2001143510577473</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/pu053emfrie2/clothes-puma-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>11190</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.2006571897992714</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emboar3/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>46/48; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>25830</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.2002848385398929</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfk4/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Rukka</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>19190</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.2003833493062211</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ru006emgnyj7/clothes-rukka-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Anta</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>5570</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.4010108613829444</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/an225emgmbg8/clothes-anta-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>46/48; 50/52; 54/56; 56/58</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>12140</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.2505710229026483</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfk1/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>44/46; 46/48; 48/50; 50/52; 52/54; 54/56; 56/58</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>18740</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.2503700148005921</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfj0/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>44/46; 46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>26680</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.1502914105544763</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfk3/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>23620</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.1503291485305227</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfj5/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>44/46; 48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик OW DWN PRKA</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Reebok</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>15740</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.2504404971665317</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/re160emfklh6/clothes-reebok-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>44/46; 46/48; 48/50; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик MTN DOWN PARKA</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>14990</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.2501250625312657</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ad002emfkrt6/clothes-adidas-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>44/46; 48/50; 52/54; 60/62</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик Angaros II</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Regatta</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>11590</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.2006345265190703</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/re036emfqtu4/clothes-regatta-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>48; 50; 52/54; 56</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>10190</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.2506801970733142</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emuee41/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>21890</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.2503167916709477</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfd9/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик UA Iso Down Sweater</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Under Armour</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>12360</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.2504548211036992</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/un001embvch1/clothes-underarmour-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>13510</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.1502610227058305</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emuee46/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>44/46; 46/48; 48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>20840</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.2503327457822224</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfj7/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>44/46; 46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик BARDU BOMBER</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Helly Hansen</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>17240</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.2501087429317095</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/he012emdkiy2/clothes-hellyhansen-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик AHQ AT DOWN JKT</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>ASICS</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>10390</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.2001539645881447</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/as009emfpmv7/clothes-asics-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>48/50; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>20390</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1503812658860786</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfi6/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик UA Iso Down Sweater</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Under Armour</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>12360</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.2504548211036992</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/un001embvch0/clothes-underarmour-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик ARCTIC PATROL DOWN PARKA</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Helly Hansen</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>27990</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.2000571591883396</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/he012emfqwq5/clothes-hellyhansen-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>12710</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.2005786527454557</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emuee48/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик VERGLAS HOODED DOWN INSULATOR</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Helly Hansen</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>14390</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.2001111728738187</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/he012emcjro1/clothes-hellyhansen-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>46/48; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик CL DOWN MID JACKET</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Reebok Classics</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>11770</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.2502707178801198</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/re005emfkdg3/clothes-reebokclassics-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик UA Iso Down Sweater</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Under Armour</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>12360</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.2504548211036992</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/un001embvch2/clothes-underarmour-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик Down Sweater Hooded- WARM</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Under Armour</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>13490</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.2501389660922735</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/un001embvch3/clothes-underarmour-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>10490</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.2506607614829631</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emuek27/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>44/46; 46/48; 48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик Down Sweater Hooded- WARM</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Under Armour</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>12590</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.3001667593107282</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/un001embvch5/clothes-underarmour-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик LONGYEAR II PARKA</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Helly Hansen</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>26390</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.200060624431646</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/he012emfqzq5/clothes-hellyhansen-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>46/48; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик LONGYEAR II PARKA</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Helly Hansen</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>26390</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.200060624431646</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/he012emfqzq4/clothes-hellyhansen-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>12790</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.2005750359397462</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emuee49/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>48/50; 50/52; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик Sportswear Windrunner Down Fill Men's Hooded Print Jacket</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>9210</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.2506102522375916</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ni464emgqvd5/clothes-nike-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик UA Armour Down Hooded Jkt</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Under Armour</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>10190</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.1501251042535446</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/un001emfrre5/clothes-underarmour-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>10790</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.2506424057226196</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfj8/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>44/46; 46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>11510</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.2006389332592541</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfj9/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>44/46; 46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Fila</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>8490</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.1509150915091509</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/fi030emgezq6/clothes-fila-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик FCB M NSW DWN JKT AUT CL</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>11690</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.1000769822940724</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ni464emgqvc9/clothes-nike-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик HELIUM HIGH MEN</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Jack Wolfskin</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>11890</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.1501072194424589</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ja021emggcq4/clothes-jackwolfskin-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик Sagene 3in1 Jkt</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Bergans of Norway</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>34900</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.1016731016731016</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/mp002xm1pznp/clothes-bergansofnorway-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пуховик Sportswear Down-Fill Men's Print Hooded Jacket</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>13760</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.1000654022236757</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ni464emgqvd1/clothes-nike-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>44/46; 46/48; 50/52; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Anta</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>4280</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.4512116938068983</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/an225emgmbh3/clothes-anta-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>48/50; 56/58</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Пуховик Oversize 500 Down Jacket</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>19110</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.1502890173410405</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/pu053emfrie7/clothes-puma-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Пуховик Streetstyle 480 Hooded Down Jacket</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>13590</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2001177163037081</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/pu053emfrie1/clothes-puma-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>50/52; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Пуховик Basketball KT A-PROOF RAIN I</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Anta</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>5843</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.350055617352614</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/mp002xm243il/clothes-anta-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>50/52; 54/56; 58/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Пуховик ARCTIC PATROL PARKA</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Helly Hansen</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>41240</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.2500454628114203</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/he012emfqwq6/clothes-hellyhansen-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>26790</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.2002746350637332</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfj1/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Пуховик PWRWarm packLITE HD 600 DOWN Jacket</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>10390</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.2001539645881447</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/pu053emfrid4/clothes-puma-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Пуховик APOLLO JACKET</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Quiksilver</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>11190</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.500424126077057</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/qu192emvoc57/clothes-quiksilver-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>46/48; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Пуховик Angaros II</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Regatta</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>10870</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.2502931236637009</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/re036emfqtu4/clothes-regatta-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>50; 52/54; 56</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Пуховик Basketball KT A-PROOF RAIN I</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Anta</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>5843</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.350055617352614</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/mp002xm243ip/clothes-anta-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Пуховик Sagene 3in1 Jkt</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Bergans of Norway</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>33000</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.1505791505791506</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/mp002xm1pznp/clothes-bergansofnorway-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Пуховик TAN L DOWN COAT</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>16990</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.1500750375187594</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ad002emfkrs3/clothes-adidas-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Пуховик UA Iso Down Sweater</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Under Armour</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>11540</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.3001819284414797</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/un001embvch0/clothes-underarmour-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>11330</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.300574109512933</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfk1/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>44/46; 46/48; 48/50; 50/52; 52/54; 54/56; 56/58</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Пуховик UA Iso Down Sweater</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Under Armour</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>11540</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.3001819284414797</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/un001embvch1/clothes-underarmour-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Пуховик VERGLAS HOODED DOWN INSULATOR</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Helly Hansen</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>13490</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.2501389660922735</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/he012emcjro1/clothes-hellyhansen-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Пуховик UA Iso Down Sweater</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Under Armour</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>11540</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.3001819284414797</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/un001embvch2/clothes-underarmour-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Icepeak</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>22760</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.1003596980117791</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ic647emhkpv3/clothes-icepeak-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>46; 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Пуховик M DOWN HD JKT</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>ASICS</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>15290</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.100058858151854</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/as455emfpsa7/clothes-asics-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Пуховик Oversize 500 Down Jacket</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>19110</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.1502890173410405</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/pu053emfrie6/clothes-puma-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>48/50; 50/52; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Anta</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>5840</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>0.3510390043338149</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/an225emgmbh5/clothes-anta-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>46/48; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Anta</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>6710</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>0.300968850921971</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/an225emctrl0/clothes-anta-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>9790</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>0.3006643331666548</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emuek27/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Пуховик CLIMAWARM JKT</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>12790</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>0.2001250781738587</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ad002emfkrt1/clothes-adidas-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>44/46; 48/50; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Пуховик ARCTIC PATROL PARKA</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Helly Hansen</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>38490</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>0.3000545553737043</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/he012emfqwq6/clothes-hellyhansen-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Пуховик CFC M NSW DWN JKT AUT</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>9090</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>0.3002309468822171</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ni464emflcc2/clothes-nike-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>50/52; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Пуховик THFC M NSW DWN JKT AUT CL</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>9090</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>0.3002309468822171</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ni464emgqvd0/clothes-nike-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>48/50; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>25120</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>0.2501268694587898</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfj1/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>18060</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>0.3503363430339221</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfj3/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>48/50; 50/52; 56/58</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Пуховик 1877 DOWN JACKET</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Helly Hansen</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>13990</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>0.3001500750375188</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/he012emfqzq7/clothes-hellyhansen-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>50/52; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>19990</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>0.2003680147205888</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfi9/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>46/48; 48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Пуховик AHQ AT DOWN LONG JKT</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>ASICS</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>16990</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>0.1500750375187594</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/as009emfpmw0/clothes-asics-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>50/52; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Пуховик PWRWarm packLITE HD 600 DOWN Jacket</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>9740</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>0.2501924557351809</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/pu053emfrid4/clothes-puma-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Пуховик TAN L DOWN COAT</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>15990</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>0.2001000500250125</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ad002emfkrs3/clothes-adidas-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Пуховик H JACKET DOWN</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>adidas Originals</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>14990</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>0.2501250625312657</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ad093emfkpi4/clothes-adidasoriginals-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>48/50; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>0.3006503951325268</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emfxfk0/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Пуховик MTN DOWN PARKA</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>13990</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>0.3001500750375188</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ad002emfkrt6/clothes-adidas-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>44/46; 48/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Anta</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>5450</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>0.3011924605718682</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/an225emgmbh2/clothes-anta-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>48/50; 50/52; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Anta</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>11990</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>0.200133422281521</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/an225emfpxh0/clothes-anta-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Пуховик M DOWN HD JKT</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>ASICS</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>14440</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>0.150088287227781</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/as455emfpsa7/clothes-asics-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Пуховик Varilite Ho Jkt</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>6740</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>0.2502780867630701</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ad002emfkrs6/clothes-adidas-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>44/46; 48/50; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>12710</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>0.2005786527454557</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emuee46/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Пуховик FCB M NSW DWN JKT AUT CL</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>11040</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>0.1501154734411085</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ni464emgqvc9/clothes-nike-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>11910</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>0.2006174911067857</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emboar2/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>44/46; 46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Пуховик VARILITE SOFT J</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>6740</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>0.2502780867630701</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ad002emfkrt5/clothes-adidas-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>44/46; 48/50; 52/54; 56/58</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Пуховик UA Sportstyle Down Jacket</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Under Armour</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>14440</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>0.150088287227781</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/un001emgurc5/clothes-underarmour-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>11190</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>0.2006571897992714</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emjxs94/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Пуховик UA Sportstyle Down Hooded Jacket</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Under Armour</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>14390</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>0.2001111728738187</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/un001emgurc4/clothes-underarmour-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>9510</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>0.3006838738142511</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emuee41/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Пуховик ARCTIC PATROL DOWN PARKA</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Helly Hansen</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>26240</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>0.2500714489854244</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/he012emfqwq5/clothes-hellyhansen-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Пуховик CLIMAWARM HOODI</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>11240</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>0.2501667778519012</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ad002emfkrt9/clothes-adidas-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>44/46; 48/50; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Пуховик CL DOWN MID JACKET</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Reebok Classics</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>10980</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>0.3005923944200267</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/re005emfkdg3/clothes-reebokclassics-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Пуховик 1877 DOWN JACKET</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Helly Hansen</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>15990</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>0.2001000500250125</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/he012emfqwr0/clothes-hellyhansen-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>46/48; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Пуховик Down Sweater Hooded- WARM</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Under Armour</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>11690</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>0.3501945525291829</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/un001embvch5/clothes-underarmour-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Пуховик BARDU BOMBER</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Helly Hansen</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>16090</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>0.3001304915180514</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/he012emdkiy2/clothes-hellyhansen-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Пуховик OW DWN PRKA</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Reebok</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>14690</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>0.3004428782322968</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/re160emfklh6/clothes-reebok-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>11890</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>0.1506536181155796</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emjxq37/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Пуховик Sportswear Windrunner Men's Down Fill Parka</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>11890</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>0.1501072194424589</v>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ni464emflax6/clothes-nike-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Anta</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>7430</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>0.2002152852529602</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/an225emfpxg6/clothes-anta-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>46/48; 50/52; 52/54; 54/56; 56/58</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Пуховик Down Sweater Hooded- WARM</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Under Armour</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>12590</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>0.3001667593107282</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/un001embvch3/clothes-underarmour-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Пуховик VERGLAS HOODED DOWN INSULATOR</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Helly Hansen</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>12590</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>0.3001667593107282</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/he012emcjro1/clothes-hellyhansen-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>EA7</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>12230</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>0.1506354607958886</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ea002emuee42/clothes-ea7-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>44/46; 46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Пуховик UA Armour Down Hooded Jkt</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Under Armour</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>9590</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>0.2001668056713928</v>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/un001emfrre5/clothes-underarmour-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Пуховик UTILITY DOWN PK</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>16990</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>0.1500750375187594</v>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ad002emghra5/clothes-adidas-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>40/42; 44/46; 48/50; 52/54; 56/58</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Пуховик M 1996 RTRO NPSE JKT</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>The North Face</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>19430</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>0.1004213158016575</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/th016emfqls7/clothes-thenorthface-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>50/52; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Rukka</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>20960</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>0.1003905747027769</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ru006emhkpm1/clothes-rukka-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Пуховик DOWN JACKET MEN</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>ASICS</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>8990</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>0.1001001001001001</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/as455emched5/clothes-asics-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Пуховик M NSW DWN FILL BOMBR</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>9260</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>0.1000971817298348</v>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ni464emflax9/clothes-nike-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Rukka</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>24650</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>0.1003321289098142</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ru006emhkpi7/clothes-rukka-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56; 56/58</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Пуховик DOWN JACKET MEN</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>ASICS</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>8990</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>0.1001001001001001</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/as455emched6/clothes-asics-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Пуховик M NSW SC DWN FILL JKT</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>13040</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>0.1000690131124914</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ni464emgqvd7/clothes-nike-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Rukka</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>20960</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>0.1003905747027769</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ru006emhkpi6/clothes-rukka-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Пуховик DOWN JACKET MEN</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>ASICS</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>8990</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>0.1001001001001001</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/as455emched4/clothes-asics-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Rukka</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>20960</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>0.1003905747027769</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ru006emhkpm0/clothes-rukka-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56; 56/58</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Пуховик Sportswear Windrunner Men's Down Fill Parka</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>12590</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>0.100071479628306</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ni464emcmjr3/clothes-nike-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>44/46; 46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Пуховик 3ST LONG PARKA</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>17990</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>0.1000500250125063</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ad002emgbia6/clothes-adidas-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>48/50; 52/54; 56/58</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Пуховик Sportswear Windrunner Down Fill Men's Hooded Jacket</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>9890</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>0.100090991810737</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ni464emcmjj3/clothes-nike-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Пуховик M NEVERO DOWN JACKET</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>The North Face</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>20510</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>0.1003991403131717</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/th016emfqlt4/clothes-thenorthface-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Пуховик LONGYEAR II PARKA</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Helly Hansen</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>29690</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>0.1000303122158229</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/he012emfqwq9/clothes-hellyhansen-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Пуховик OW TW HBRD JCKT</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Reebok</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>14390</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>0.1005687855490969</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/re160emfklh8/clothes-reebok-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 52/54; 54/56</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Пуховик</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Icepeak</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>22760</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>0.1003596980117791</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ic647emhkpv4/clothes-icepeak-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>46; 48; 50; 52; 54</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Пуховик PSG M NSW DWN JKT AUT CL</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>11690</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>0.1000769822940724</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/p/ni464emgqvd2/clothes-nike-pukhovik/</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>46/48; 48/50; 50/52; 52/54; 54/56</t>
         </is>
       </c>
     </row>
